--- a/ArticleManage/main_working_folder/output_folders/Data 128 Application of response surface/Data128_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 128 Application of response surface/Data128_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ACI" sheetId="1" r:id="rId1"/>
-    <sheet name="ACII" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 ACI  0-1-250-450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 ACII  0-1-250-450 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACI</a:t>
+              <a:t>Izoterma adsorpcji probki ACI z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ACI!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 ACI  0-1-250-450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ACI!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 ACI  0-1-250-450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -178,6 +178,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -247,6 +249,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -411,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACII</a:t>
+              <a:t>Izoterma adsorpcji probki ACII z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -470,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ACII!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 ACII  0-1-250-450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ACII!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 ACII  0-1-250-450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -488,6 +492,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -557,6 +563,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 128 Application of response surface/Data128_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 128 Application of response surface/Data128_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 ACI  0-1-250-450 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 ACII  0-1-250-450 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 ACI  0&amp;1&amp;250&amp;450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 ACII  0&amp;1&amp;250&amp;450 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ACI  0-1-250-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 ACI  0&amp;1&amp;250&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ACI  0-1-250-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 ACI  0&amp;1&amp;250&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 ACII  0-1-250-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 ACII  0&amp;1&amp;250&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 ACII  0-1-250-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 ACII  0&amp;1&amp;250&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
